--- a/Anal_1/ZH_2/OlikaGrind.xlsx
+++ b/Anal_1/ZH_2/OlikaGrind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitHub\ELTE_Stash\Anal_1\ZH_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E93E4B-A3C4-4C25-852B-FE107A7DFB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D114DE-5625-4084-8233-FCB225167620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D3C6BF1-FB0C-4086-A660-9A5EB798F75E}"/>
   </bookViews>
@@ -135,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +501,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,11 +545,11 @@
       <c r="C2" s="3">
         <v>45782</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <f>C2+1</f>
         <v>45783</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <f>D2+2</f>
         <v>45785</v>
       </c>
@@ -559,7 +571,7 @@
       <c r="C3" s="3">
         <v>45784</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <f>C3+1</f>
         <v>45785</v>
       </c>
@@ -585,7 +597,7 @@
       <c r="C4" s="3">
         <v>45784</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <f>C4+1</f>
         <v>45785</v>
       </c>
@@ -608,6 +620,21 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="3">
+        <v>45785</v>
+      </c>
+      <c r="D5" s="7">
+        <f>C5+1</f>
+        <v>45786</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5+2</f>
+        <v>45788</v>
+      </c>
+      <c r="F5" s="3">
+        <f>E5+4</f>
+        <v>45792</v>
+      </c>
       <c r="G5" s="3">
         <v>45792</v>
       </c>
@@ -619,6 +646,21 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="3">
+        <v>45785</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6+1</f>
+        <v>45786</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6+2</f>
+        <v>45788</v>
+      </c>
+      <c r="F6" s="3">
+        <f>E6+4</f>
+        <v>45792</v>
+      </c>
       <c r="G6" s="3">
         <v>45792</v>
       </c>
@@ -629,6 +671,21 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45785</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7+1</f>
+        <v>45786</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7+2</f>
+        <v>45788</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7+4</f>
+        <v>45792</v>
       </c>
       <c r="G7" s="3">
         <v>45792</v>

--- a/Anal_1/ZH_2/OlikaGrind.xlsx
+++ b/Anal_1/ZH_2/OlikaGrind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitHub\ELTE_Stash\Anal_1\ZH_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D114DE-5625-4084-8233-FCB225167620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BE3F9-94ED-4FA3-BA4F-3446781A36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D3C6BF1-FB0C-4086-A660-9A5EB798F75E}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +187,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +507,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,20 +552,18 @@
         <v>45782</v>
       </c>
       <c r="D2" s="6">
-        <f>C2+1</f>
+        <f t="shared" ref="D2:D9" si="0">C2+1</f>
         <v>45783</v>
       </c>
       <c r="E2" s="6">
-        <f>D2+2</f>
+        <f t="shared" ref="E2:E9" si="1">D2+2</f>
         <v>45785</v>
       </c>
       <c r="F2" s="3">
-        <f>E2+4</f>
+        <f t="shared" ref="F2:F9" si="2">E2+4</f>
         <v>45789</v>
       </c>
-      <c r="G2" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -572,20 +576,18 @@
         <v>45784</v>
       </c>
       <c r="D3" s="6">
-        <f>C3+1</f>
+        <f t="shared" si="0"/>
         <v>45785</v>
       </c>
       <c r="E3" s="3">
-        <f>D3+2</f>
+        <f t="shared" si="1"/>
         <v>45787</v>
       </c>
       <c r="F3" s="3">
-        <f>E3+4</f>
+        <f t="shared" si="2"/>
         <v>45791</v>
       </c>
-      <c r="G3" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -598,20 +600,18 @@
         <v>45784</v>
       </c>
       <c r="D4" s="6">
-        <f>C4+1</f>
+        <f t="shared" si="0"/>
         <v>45785</v>
       </c>
       <c r="E4" s="3">
-        <f>D4+2</f>
+        <f t="shared" si="1"/>
         <v>45787</v>
       </c>
       <c r="F4" s="3">
-        <f>E4+4</f>
+        <f t="shared" si="2"/>
         <v>45791</v>
       </c>
-      <c r="G4" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -623,21 +623,19 @@
       <c r="C5" s="3">
         <v>45785</v>
       </c>
-      <c r="D5" s="7">
-        <f>C5+1</f>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>45786</v>
       </c>
       <c r="E5" s="3">
-        <f>D5+2</f>
+        <f t="shared" si="1"/>
         <v>45788</v>
       </c>
       <c r="F5" s="3">
-        <f>E5+4</f>
+        <f t="shared" si="2"/>
         <v>45792</v>
       </c>
-      <c r="G5" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -649,21 +647,19 @@
       <c r="C6" s="3">
         <v>45785</v>
       </c>
-      <c r="D6" s="7">
-        <f>C6+1</f>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>45786</v>
       </c>
       <c r="E6" s="3">
-        <f>D6+2</f>
+        <f t="shared" si="1"/>
         <v>45788</v>
       </c>
       <c r="F6" s="3">
-        <f>E6+4</f>
+        <f t="shared" si="2"/>
         <v>45792</v>
       </c>
-      <c r="G6" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -676,20 +672,18 @@
         <v>45785</v>
       </c>
       <c r="D7" s="7">
-        <f>C7+1</f>
+        <f t="shared" si="0"/>
         <v>45786</v>
       </c>
       <c r="E7" s="3">
-        <f>D7+2</f>
+        <f t="shared" si="1"/>
         <v>45788</v>
       </c>
       <c r="F7" s="3">
-        <f>E7+4</f>
+        <f t="shared" si="2"/>
         <v>45792</v>
       </c>
-      <c r="G7" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -698,9 +692,22 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
-        <v>45792</v>
-      </c>
+      <c r="C8" s="3">
+        <v>45786</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>45787</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>45789</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>45793</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -709,9 +716,22 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>45792</v>
-      </c>
+      <c r="C9" s="3">
+        <v>45786</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>45787</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>45789</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>45793</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -720,9 +740,7 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -731,9 +749,7 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -742,9 +758,7 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -753,9 +767,7 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -764,9 +776,7 @@
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -775,9 +785,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -786,9 +794,7 @@
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -797,9 +803,7 @@
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="3">
-        <v>45792</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">

--- a/Anal_1/ZH_2/OlikaGrind.xlsx
+++ b/Anal_1/ZH_2/OlikaGrind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitHub\ELTE_Stash\Anal_1\ZH_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BE3F9-94ED-4FA3-BA4F-3446781A36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE516D14-3704-46B6-807B-C0483B86CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D3C6BF1-FB0C-4086-A660-9A5EB798F75E}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B001928C-2383-42CA-AD44-984CC8575691}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -541,7 +541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -564,8 +564,11 @@
         <v>45789</v>
       </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -579,7 +582,7 @@
         <f t="shared" si="0"/>
         <v>45785</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
@@ -588,8 +591,11 @@
         <v>45791</v>
       </c>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -603,7 +609,7 @@
         <f t="shared" si="0"/>
         <v>45785</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
@@ -612,8 +618,11 @@
         <v>45791</v>
       </c>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -627,7 +636,7 @@
         <f t="shared" si="0"/>
         <v>45786</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>45788</v>
       </c>
@@ -636,8 +645,11 @@
         <v>45792</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -651,7 +663,7 @@
         <f t="shared" si="0"/>
         <v>45786</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>45788</v>
       </c>
@@ -660,8 +672,11 @@
         <v>45792</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -671,11 +686,11 @@
       <c r="C7" s="3">
         <v>45785</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>45786</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>45788</v>
       </c>
@@ -684,8 +699,11 @@
         <v>45792</v>
       </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -695,7 +713,7 @@
       <c r="C8" s="3">
         <v>45786</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>45787</v>
       </c>
@@ -708,8 +726,11 @@
         <v>45793</v>
       </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -719,7 +740,7 @@
       <c r="C9" s="3">
         <v>45786</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>45787</v>
       </c>
@@ -732,82 +753,97 @@
         <v>45793</v>
       </c>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="3">
+        <v>45789</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="3">
+        <v>45789</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45789</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" s="3">
+        <v>45789</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Anal_1/ZH_2/OlikaGrind.xlsx
+++ b/Anal_1/ZH_2/OlikaGrind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitHub\ELTE_Stash\Anal_1\ZH_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE516D14-3704-46B6-807B-C0483B86CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAEC02-7D42-4038-AA18-15AF36EB5E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D3C6BF1-FB0C-4086-A660-9A5EB798F75E}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +812,9 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="3">
+        <v>45790</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,6 +824,9 @@
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C15" s="3">
+        <v>45790</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,6 +836,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="3">
+        <v>45790</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,6 +847,9 @@
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45790</v>
       </c>
       <c r="G17" s="3"/>
     </row>
